--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -88,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,7 +103,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,120 +232,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -255,43 +255,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,139 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +446,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +490,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -497,21 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,17 +540,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -554,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,145 +566,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1015,14 +1012,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1993900</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:colOff>2327275</xdr:colOff>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1040,7 +1037,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="19459575"/>
+          <a:off x="2114550" y="19631025"/>
           <a:ext cx="10394950" cy="4653280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1317,7 +1314,7 @@
   <sheetPr/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1371,12 +1368,12 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" ht="40.5" spans="2:5">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
@@ -1387,7 +1384,7 @@
       </c>
     </row>
     <row r="54" ht="108" spans="2:5">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C54" t="s">
@@ -1396,12 +1393,12 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="91" ht="27" spans="2:5">
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
@@ -1415,7 +1412,7 @@
       </c>
     </row>
     <row r="99" ht="40.5" spans="2:2">
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>时间</t>
   </si>
@@ -81,6 +81,25 @@
   <si>
     <t xml:space="preserve">6、UPS系统导出的一些SKU数据，SKU会体现2列含税成本价（成本【含税】、PurchasePrice），部分商品的成本价是不一致的。是否有问题
 </t>
+  </si>
+  <si>
+    <t>1、运费机制问题，订单11956405,11955263,1195733，应该收取运费，但是落地订单没有运费数据</t>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>（无需解决，业务逻辑如此）PC商城和供应商代发货订单是单独计算运费的
+APP、WAP是商城和供应商代发货合并计算运费，如果有运费则将运费落地到商城的订单  ，如果只有供应商代发货的订单，则包邮</t>
+  </si>
+  <si>
+    <t>2、订单11957317客户在母婴之家下单支付成功，推送JD失败，提示缺货，但验证JD可正常下单（客户参加银联折扣活动，可能不同意取消订单）</t>
+  </si>
+  <si>
+    <t>已重新推送成功</t>
+  </si>
+  <si>
+    <t>3、特卖商家录入运单号（3921705515908）冲突</t>
   </si>
 </sst>
 </file>
@@ -88,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,6 +123,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,29 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -255,6 +274,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,36 +419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +465,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,15 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -554,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,14 +1031,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2327275</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:colOff>1993900</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1037,7 +1056,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="19631025"/>
+          <a:off x="1781175" y="19459575"/>
           <a:ext cx="10394950" cy="4653280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1047,6 +1066,120 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1248410</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="a028ac40874c60d7576f530fd57755e"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="25669875"/>
+          <a:ext cx="5639435" cy="2953385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="178560134973784841"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="29175075"/>
+          <a:ext cx="4744085" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762635</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="11845983002057238"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="29089350"/>
+          <a:ext cx="3972560" cy="3220085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1312,10 +1445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1416,6 +1549,48 @@
         <v>20</v>
       </c>
     </row>
+    <row r="128" ht="54" spans="1:5">
+      <c r="A128" s="1">
+        <v>43082</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="2:5">
+      <c r="B130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>时间</t>
   </si>
@@ -100,19 +100,34 @@
   </si>
   <si>
     <t>3、特卖商家录入运单号（3921705515908）冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、京东订单 11949821 已推送给京东，有物流单号（69856094020）产生，但是没有物流信息，订单信息无法跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海涛、刘丹、朱伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前运单被订单 11957417 占用，在用这个运单导入新订单则无法导入；同一个会员在同一家下多笔订单，商家向节约成本合并一起发货，但系统设计可以一个订单对应多个订单，不支持一个运单对应多个订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东订单直接API查询京东物流接口，手动使用运单号查询也无法查询出物流信息，此种情况需要京东运营查看订单到底是什么状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,345 +136,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -467,251 +158,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,57 +175,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -787,7 +189,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -809,7 +211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -847,7 +249,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -885,7 +287,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -923,7 +325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -965,7 +367,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1007,7 +409,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1049,7 +451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1091,7 +493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1129,7 +531,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1167,7 +569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1176,6 +578,94 @@
         <a:xfrm>
           <a:off x="6972300" y="29089350"/>
           <a:ext cx="3972560" cy="3220085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="32870776"/>
+          <a:ext cx="5667375" cy="3095624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="33413700"/>
+          <a:ext cx="4467225" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,19 +929,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -1460,7 +950,7 @@
     <col min="5" max="5" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43080</v>
       </c>
@@ -1491,10 +981,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" ht="54" spans="2:5">
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="2:5">
+    <row r="39" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" ht="108" spans="2:5">
+    <row r="54" spans="2:5" ht="108" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="2:5">
+    <row r="91" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
         <v>18</v>
       </c>
@@ -1544,12 +1034,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" ht="40.5" spans="2:2">
+    <row r="99" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="128" ht="54" spans="1:5">
+    <row r="128" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>43082</v>
       </c>
@@ -1566,7 +1056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="2:5">
+    <row r="130" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
         <v>24</v>
       </c>
@@ -1580,20 +1070,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>26</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="2"/>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B173" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>时间</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>京东订单直接API查询京东物流接口，手动使用运单号查询也无法查询出物流信息，此种情况需要京东运营查看订单到底是什么状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、京东商品不支持7天无理由退换货，需要在母婴之家平台也展示出不支持退换货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是问题、BUG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1098,6 +1110,20 @@
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" s="2"/>
     </row>
+    <row r="193" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A193" s="1">
+        <v>43083</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>时间</t>
   </si>
@@ -100,46 +100,37 @@
   </si>
   <si>
     <t>3、特卖商家录入运单号（3921705515908）冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前运单被订单 11957417 占用，在用这个运单导入新订单则无法导入；同一个会员在同一家下多笔订单，商家向节约成本合并一起发货，但系统设计可以一个订单对应多个订单，不支持一个运单对应多个订单</t>
   </si>
   <si>
     <t>4、京东订单 11949821 已推送给京东，有物流单号（69856094020）产生，但是没有物流信息，订单信息无法跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李海涛、刘丹、朱伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前运单被订单 11957417 占用，在用这个运单导入新订单则无法导入；同一个会员在同一家下多笔订单，商家向节约成本合并一起发货，但系统设计可以一个订单对应多个订单，不支持一个运单对应多个订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>京东订单直接API查询京东物流接口，手动使用运单号查询也无法查询出物流信息，此种情况需要京东运营查看订单到底是什么状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、京东商品不支持7天无理由退换货，需要在母婴之家平台也展示出不支持退换货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李海涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是问题、BUG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是问题、不是BUG，需要新开发（已告知 刘丹 ，确定是否需要开发）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,21 +139,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,9 +485,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -187,10 +744,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -201,7 +805,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -223,7 +827,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -261,7 +865,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -299,7 +903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -337,7 +941,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -379,7 +983,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -421,7 +1025,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -463,7 +1067,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -505,7 +1109,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -543,14 +1147,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="29175075"/>
+          <a:off x="1933575" y="29517975"/>
           <a:ext cx="4744085" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -581,14 +1185,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="29089350"/>
+          <a:off x="6972300" y="29432250"/>
           <a:ext cx="3972560" cy="3220085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -619,7 +1223,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -632,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="32870776"/>
-          <a:ext cx="5667375" cy="3095624"/>
+          <a:off x="1943100" y="33385125"/>
+          <a:ext cx="5667375" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,7 +1267,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -941,19 +1545,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
       <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -962,7 +1566,7 @@
     <col min="5" max="5" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>43080</v>
       </c>
@@ -993,10 +1597,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" ht="54" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" ht="40.5" spans="2:5">
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="54" ht="108" spans="2:5">
       <c r="B54" s="2" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" ht="27" spans="2:5">
       <c r="B91" s="2" t="s">
         <v>18</v>
       </c>
@@ -1046,12 +1650,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="99" ht="40.5" spans="2:2">
       <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="128" ht="54" spans="1:5">
       <c r="A128" s="1">
         <v>43082</v>
       </c>
@@ -1068,7 +1672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" ht="27" spans="2:5">
       <c r="B130" s="2" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="150" ht="40.5" spans="2:5">
       <c r="B150" t="s">
         <v>26</v>
       </c>
@@ -1090,13 +1694,13 @@
         <v>6</v>
       </c>
       <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="172" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" ht="27" spans="2:5">
       <c r="B172" s="2" t="s">
         <v>28</v>
       </c>
@@ -1104,29 +1708,32 @@
         <v>29</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:2">
       <c r="B173" s="2"/>
     </row>
-    <row r="193" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" ht="27" spans="1:5">
       <c r="A193" s="1">
         <v>43083</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" t="s">
         <v>32</v>
-      </c>
-      <c r="C193" t="s">
-        <v>33</v>
-      </c>
-      <c r="D193" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>时间</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>不是问题、不是BUG，需要新开发（已告知 刘丹 ，确定是否需要开发）</t>
+  </si>
+  <si>
+    <t>1、提交订单提示新妈商品大浴盆过期，阻止了提交订单</t>
+  </si>
+  <si>
+    <t>不是问题，这是活动需求，新妈商品自动加入购物车并保留15天，客户删除过后就不会自动加入，过期也就不会再展示了</t>
   </si>
 </sst>
 </file>
@@ -126,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -292,6 +298,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,175 +460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,154 +597,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1290,6 +1299,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4477385</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="微信图片_20171218103910"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="37623750"/>
+          <a:ext cx="4286885" cy="6973570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1551,10 +1598,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1731,6 +1778,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="195" ht="27" spans="1:5">
+      <c r="A195" s="1">
+        <v>43086</v>
+      </c>
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>时间</t>
   </si>
@@ -22,7 +22,13 @@
     <t>问题</t>
   </si>
   <si>
-    <t>责任人</t>
+    <t>提出人</t>
+  </si>
+  <si>
+    <t>责任人/分配人</t>
+  </si>
+  <si>
+    <t>问题分类</t>
   </si>
   <si>
     <t>解决状态</t>
@@ -34,9 +40,15 @@
     <t xml:space="preserve">1、拉取京东商品明细给刘丹，共计拉取 31366 条数据   </t>
   </si>
   <si>
+    <t>刘丹</t>
+  </si>
+  <si>
     <t>李海涛</t>
   </si>
   <si>
+    <t>需求</t>
+  </si>
+  <si>
     <t>已解决</t>
   </si>
   <si>
@@ -46,6 +58,9 @@
     <t>王奎、朱伟</t>
   </si>
   <si>
+    <t>BUG</t>
+  </si>
+  <si>
     <t>落地订单王奎推送订单到JD，JD返回成本价格，经测试JD返回的成本价格存在差异，需要JD处理这种差异情况，母婴之家业务朱伟跟进</t>
   </si>
   <si>
@@ -53,6 +68,9 @@
   </si>
   <si>
     <t>王奎</t>
+  </si>
+  <si>
+    <t>新需求</t>
   </si>
   <si>
     <t>需要开发对接增值税发票接口</t>
@@ -86,6 +104,9 @@
     <t>1、运费机制问题，订单11956405,11955263,1195733，应该收取运费，但是落地订单没有运费数据</t>
   </si>
   <si>
+    <t>咨询</t>
+  </si>
+  <si>
     <t>已处理</t>
   </si>
   <si>
@@ -102,6 +123,9 @@
     <t>3、特卖商家录入运单号（3921705515908）冲突</t>
   </si>
   <si>
+    <t>陈秀兰</t>
+  </si>
+  <si>
     <t>当前运单被订单 11957417 占用，在用这个运单导入新订单则无法导入；同一个会员在同一家下多笔订单，商家向节约成本合并一起发货，但系统设计可以一个订单对应多个订单，不支持一个运单对应多个订单</t>
   </si>
   <si>
@@ -124,6 +148,42 @@
   </si>
   <si>
     <t>不是问题，这是活动需求，新妈商品自动加入购物车并保留15天，客户删除过后就不会自动加入，过期也就不会再展示了</t>
+  </si>
+  <si>
+    <t>1、拉取日本直邮豌豆公主所有已经审核通过的成本价格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已将excel表格发给 刘丹 </t>
+  </si>
+  <si>
+    <t>1、取消APP银联支付活动图标和描述信息</t>
+  </si>
+  <si>
+    <t>朱伟</t>
+  </si>
+  <si>
+    <t>2、京东的有一批数据，显示出库，但是京东那边是待付款的，王奎联系他们技术，还没有回复，今天看还是没有物流显示</t>
+  </si>
+  <si>
+    <t>王奎/朱伟/刘静/刘丹</t>
+  </si>
+  <si>
+    <t>需要业务一起跟踪JD处理进度</t>
+  </si>
+  <si>
+    <t>3、分时段成本价格无法导入</t>
+  </si>
+  <si>
+    <t>吕海琴</t>
+  </si>
+  <si>
+    <t>每次导入批量限制为100条</t>
+  </si>
+  <si>
+    <t>4、拉取欧洲直邮：荷兰豪斯控股有限公司成本价格</t>
+  </si>
+  <si>
+    <t>已拉取excel通过企业微信发给吕海琴</t>
   </si>
 </sst>
 </file>
@@ -132,13 +192,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -267,8 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,15 +350,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,187 +366,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -743,11 +817,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -823,8 +897,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
@@ -843,7 +917,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="1295400"/>
+          <a:off x="1676400" y="1695450"/>
           <a:ext cx="10058400" cy="5598160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -855,13 +929,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2047875</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>219710</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
@@ -881,7 +955,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12230100" y="1304925"/>
+          <a:off x="15506700" y="1704975"/>
           <a:ext cx="6268085" cy="4324985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -893,13 +967,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
@@ -919,7 +993,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19011900" y="1666875"/>
+          <a:off x="22288500" y="2066925"/>
           <a:ext cx="10058400" cy="2744470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -937,7 +1011,7 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1198880</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -957,8 +1031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="7648575"/>
-          <a:ext cx="9638030" cy="2152650"/>
+          <a:off x="1743075" y="8048625"/>
+          <a:ext cx="12914630" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,7 +1053,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1955165</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
@@ -999,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="11372850"/>
-          <a:ext cx="10394315" cy="5953760"/>
+          <a:off x="1743075" y="11772900"/>
+          <a:ext cx="13670915" cy="5953760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,7 +1095,7 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2016760</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -1041,8 +1115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="17973675"/>
-          <a:ext cx="10398760" cy="879475"/>
+          <a:off x="1800225" y="18373725"/>
+          <a:ext cx="13675360" cy="879475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,7 +1137,7 @@
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1993900</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
@@ -1083,8 +1157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="19459575"/>
-          <a:ext cx="10394950" cy="4653280"/>
+          <a:off x="1781175" y="19859625"/>
+          <a:ext cx="13671550" cy="4653280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,7 +1199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="25669875"/>
+          <a:off x="2085975" y="26069925"/>
           <a:ext cx="5639435" cy="2953385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1163,7 +1237,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="29517975"/>
+          <a:off x="1933575" y="29918025"/>
           <a:ext cx="4744085" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1175,14 +1249,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>150</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762635</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1000760</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
     </xdr:to>
@@ -1201,7 +1275,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="29432250"/>
+          <a:off x="8515350" y="29832300"/>
           <a:ext cx="3972560" cy="3220085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1245,7 +1319,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="33385125"/>
+          <a:off x="1943100" y="33785175"/>
           <a:ext cx="5667375" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1257,14 +1331,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1289,7 +1363,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886700" y="33413700"/>
+          <a:off x="9429750" y="33813750"/>
           <a:ext cx="4467225" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1327,8 +1401,198 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819275" y="37623750"/>
+          <a:off x="1819275" y="38023800"/>
           <a:ext cx="4286885" cy="6973570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2400935</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="29481e94edb0fa5b205560821e38aaa"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="53273325"/>
+          <a:ext cx="5848985" cy="4886960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1541780</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="}~]@YXDEWRA87NQJDDQ6N)T"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="53397150"/>
+          <a:ext cx="7866380" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>591185</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="企业微信截图_15136536095451"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="58969275"/>
+          <a:ext cx="5144135" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1096010</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="658908789764709402"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="45758100"/>
+          <a:ext cx="5734685" cy="6924675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>551815</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="]OH247%NPS~HO1`B]WAB)H4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16182975" y="53644800"/>
+          <a:ext cx="5923915" cy="2618740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,201 +1862,500 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D229" sqref="D229"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G283" sqref="G283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="61.25" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43080</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" ht="54" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" ht="54" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="2:7">
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" ht="108" spans="2:7">
+      <c r="B54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" ht="27" spans="2:7">
+      <c r="B91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" ht="40.5" spans="2:5">
-      <c r="B39" s="2" t="s">
+      <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" ht="108" spans="2:5">
-      <c r="B54" s="2" t="s">
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" ht="40.5" spans="2:3">
+      <c r="B99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" ht="54" spans="1:7">
+      <c r="A128" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="2:7">
+      <c r="B130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
         <v>14</v>
       </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" ht="27" spans="2:5">
-      <c r="B91" s="2" t="s">
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" ht="40.5" spans="2:7">
+      <c r="B150" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" ht="27" spans="2:7">
+      <c r="B172" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="193" ht="27" spans="1:7">
+      <c r="A193" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
         <v>18</v>
       </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" ht="40.5" spans="2:2">
-      <c r="B99" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" ht="54" spans="1:5">
-      <c r="A128" s="1">
-        <v>43082</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" ht="27" spans="2:5">
-      <c r="B130" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" ht="40.5" spans="2:5">
-      <c r="B150" t="s">
-        <v>26</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="172" ht="27" spans="2:5">
-      <c r="B172" s="2" t="s">
+      <c r="F193" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195" ht="27" spans="1:7">
+      <c r="A195" s="2">
+        <v>43086</v>
+      </c>
+      <c r="B195" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" t="s">
         <v>28</v>
       </c>
-      <c r="C172" t="s">
+      <c r="F195" t="s">
         <v>29</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="2"/>
-    </row>
-    <row r="193" ht="27" spans="1:5">
-      <c r="A193" s="1">
-        <v>43083</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C193" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" t="s">
-        <v>22</v>
-      </c>
-      <c r="E193" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195" ht="27" spans="1:5">
-      <c r="A195" s="1">
-        <v>43086</v>
-      </c>
-      <c r="B195" t="s">
-        <v>33</v>
-      </c>
-      <c r="C195" t="s">
-        <v>6</v>
-      </c>
-      <c r="D195" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>34</v>
+      <c r="G195" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B238" t="s">
+        <v>43</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" t="s">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B240" t="s">
+        <v>45</v>
+      </c>
+      <c r="C240" t="s">
+        <v>46</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="2"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="2"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="2"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="2"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="2"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="2"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="2"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="2"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" ht="27" spans="2:7">
+      <c r="B283" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>48</v>
+      </c>
+      <c r="E283" t="s">
+        <v>14</v>
+      </c>
+      <c r="G283" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6">
+      <c r="B316" t="s">
+        <v>50</v>
+      </c>
+      <c r="C316" t="s">
+        <v>51</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="327" ht="27" spans="2:6">
+      <c r="B327" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327" t="s">
+        <v>51</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" t="s">
+        <v>11</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>时间</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>已拉取excel通过企业微信发给吕海琴</t>
+  </si>
+  <si>
+    <t>5、更改供应商海淘自贸：惟信国际贸易有限公司部分商品币种，由美元更改为人民币</t>
+  </si>
+  <si>
+    <t>6、秒就秒APP不展示</t>
+  </si>
+  <si>
+    <t>朱伟/唐敏</t>
+  </si>
+  <si>
+    <t>朱伟清理促销，秒就秒正常展示</t>
   </si>
 </sst>
 </file>
@@ -192,9 +204,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,15 +226,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,9 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -274,16 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,9 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +322,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -337,21 +347,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,175 +384,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,16 +597,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +628,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -630,39 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -671,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,137 +695,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +834,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1862,12 +1877,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G283" sqref="G283"/>
+      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2358,6 +2373,34 @@
         <v>54</v>
       </c>
     </row>
+    <row r="328" ht="27" spans="2:5">
+      <c r="B328" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C328" t="s">
+        <v>51</v>
+      </c>
+      <c r="D328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6">
+      <c r="B329" t="s">
+        <v>56</v>
+      </c>
+      <c r="C329" t="s">
+        <v>57</v>
+      </c>
+      <c r="E329" t="s">
+        <v>29</v>
+      </c>
+      <c r="F329" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>时间</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>朱伟清理促销，秒就秒正常展示</t>
+  </si>
+  <si>
+    <t>7、海淘代理订单会员物流短信调整（我们这边有些做海淘代理的，但是不能像正常订单一样物流信息是收件人电话那个手机收到，代理的这些账户是要注册手机号收到物流信息）</t>
+  </si>
+  <si>
+    <t>刘静</t>
   </si>
 </sst>
 </file>
@@ -203,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -226,14 +232,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,8 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +277,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -276,9 +292,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,8 +315,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,22 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -345,9 +353,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,15 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +390,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,36 +552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,126 +571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,11 +584,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,16 +609,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +640,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -636,42 +659,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,133 +701,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1877,12 +1883,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G329"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
+      <selection pane="bottomLeft" activeCell="E320" sqref="E320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2339,7 +2345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:6">
+    <row r="316" spans="2:7">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -2350,13 +2356,16 @@
         <v>9</v>
       </c>
       <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="F316" t="s">
+      <c r="G316" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="327" ht="27" spans="2:6">
+    <row r="327" spans="2:7">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -2367,14 +2376,17 @@
         <v>9</v>
       </c>
       <c r="E327" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="F327" s="3" t="s">
+      <c r="G327" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="328" ht="27" spans="2:5">
-      <c r="B328" s="4" t="s">
+    <row r="328" ht="27" spans="2:6">
+      <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C328" t="s">
@@ -2384,21 +2396,41 @@
         <v>9</v>
       </c>
       <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="2:6">
+    <row r="329" spans="2:7">
       <c r="B329" t="s">
         <v>56</v>
       </c>
       <c r="C329" t="s">
         <v>57</v>
       </c>
-      <c r="E329" t="s">
+      <c r="F329" t="s">
         <v>29</v>
       </c>
-      <c r="F329" t="s">
+      <c r="G329" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="330" ht="40.5" spans="2:6">
+      <c r="B330" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C330" t="s">
+        <v>60</v>
+      </c>
+      <c r="D330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>时间</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>刘静</t>
+  </si>
+  <si>
+    <t>1、海淘代理订单会员物流短信调整（我们这边有些做海淘代理的，但是不能像正常订单一样物流信息是收件人电话那个手机收到，代理的这些账户是要注册手机号收到物流信息）- 新增3个会员</t>
+  </si>
+  <si>
+    <t>1、PC底部添加图片 认证联盟（品牌官网）</t>
+  </si>
+  <si>
+    <t>张龙云</t>
+  </si>
+  <si>
+    <t>处理中</t>
   </si>
 </sst>
 </file>
@@ -209,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,76 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -331,9 +273,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,15 +310,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +371,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,26 +596,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,17 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,149 +701,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +852,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1622,6 +1631,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19" descr="110×40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="62922150"/>
+          <a:ext cx="1047750" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3124835</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22" descr="企业微信截图_15138325772758"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="62988825"/>
+          <a:ext cx="6525260" cy="2953385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1648460</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23" descr="企业微信截图_15138326761446"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="62922150"/>
+          <a:ext cx="6363335" cy="2343785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1883,12 +2006,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E320" sqref="E320"/>
+      <selection pane="bottomLeft" activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2417,7 +2540,7 @@
       </c>
     </row>
     <row r="330" ht="40.5" spans="2:6">
-      <c r="B330" s="4" t="s">
+      <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C330" t="s">
@@ -2431,6 +2554,46 @@
       </c>
       <c r="F330" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="332" ht="40.5" spans="1:6">
+      <c r="A332" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C332" t="s">
+        <v>60</v>
+      </c>
+      <c r="D332" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B334" t="s">
+        <v>62</v>
+      </c>
+      <c r="C334" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334" t="s">
+        <v>9</v>
+      </c>
+      <c r="E334" t="s">
+        <v>18</v>
+      </c>
+      <c r="F334" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView windowWidth="28080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>时间</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>处理中</t>
+  </si>
+  <si>
+    <t>2、一百多单特卖商家导物流把物流公司名称选错了,需要修正物流公司，正常显示物流信息</t>
+  </si>
+  <si>
+    <t>谭挺</t>
+  </si>
+  <si>
+    <t>作废了错误导入的订单物流编号</t>
+  </si>
+  <si>
+    <t>3、APP开屏页面由13年变更为14年</t>
+  </si>
+  <si>
+    <t>无法解决</t>
+  </si>
+  <si>
+    <t>需要发布APP版本</t>
   </si>
 </sst>
 </file>
@@ -221,10 +239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -244,7 +262,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +345,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -273,24 +361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,55 +383,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,21 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -402,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,26 +614,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,17 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1745,6 +1763,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="企业微信截图_15138578009085"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="66694050"/>
+          <a:ext cx="10058400" cy="3640455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>534035</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21" descr="企业微信截图_15138578286280"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="66617850"/>
+          <a:ext cx="6439535" cy="3401060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2006,12 +2100,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E341" sqref="E341"/>
+      <selection pane="bottomLeft" activeCell="B384" sqref="B384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2596,6 +2690,46 @@
         <v>64</v>
       </c>
     </row>
+    <row r="355" ht="27" spans="2:7">
+      <c r="B355" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C355" t="s">
+        <v>66</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" t="s">
+        <v>10</v>
+      </c>
+      <c r="F355" t="s">
+        <v>29</v>
+      </c>
+      <c r="G355" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7">
+      <c r="B379" t="s">
+        <v>68</v>
+      </c>
+      <c r="C379" t="s">
+        <v>46</v>
+      </c>
+      <c r="D379" t="s">
+        <v>9</v>
+      </c>
+      <c r="E379" t="s">
+        <v>18</v>
+      </c>
+      <c r="F379" t="s">
+        <v>69</v>
+      </c>
+      <c r="G379" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>时间</t>
   </si>
@@ -232,19 +232,53 @@
   </si>
   <si>
     <t>需要发布APP版本</t>
+  </si>
+  <si>
+    <t>1、刘静忘记MKS系统账号，密码，重置账号密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、特卖商品无法下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、特卖商家 KingBarley 新建专场之后，无法添加商品(KingBarley  密码：jinmaili2017)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用F11全屏模式，显示出确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,151 +295,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,194 +314,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -613,251 +323,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,57 +343,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -936,7 +357,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -958,7 +379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -996,7 +417,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1034,7 +455,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1072,7 +493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1114,7 +535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1156,7 +577,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1198,7 +619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1240,7 +661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1278,7 +699,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1316,7 +737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1354,7 +775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1398,7 +819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1442,7 +863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1480,7 +901,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1518,7 +939,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1556,7 +977,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1594,7 +1015,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1632,7 +1053,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1670,7 +1091,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1708,7 +1129,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1746,7 +1167,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1784,7 +1205,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1822,7 +1243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1831,6 +1252,264 @@
         <a:xfrm>
           <a:off x="12220575" y="66617850"/>
           <a:ext cx="6439535" cy="3401060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3038772</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>10110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="71828025"/>
+          <a:ext cx="2124372" cy="4191585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3362325</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1667773</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>9871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="71828025"/>
+          <a:ext cx="6430273" cy="2476846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3505639</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>19940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="76685775"/>
+          <a:ext cx="3143689" cy="6373115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762903</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>66885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="76800075"/>
+          <a:ext cx="6468378" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219759</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>95704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="83486625"/>
+          <a:ext cx="4896534" cy="3248479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1075641</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>113879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="83724750"/>
+          <a:ext cx="5476191" cy="3371429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2094,21 +1773,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G379"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B384" sqref="B384"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D461" sqref="D461"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -2118,7 +1796,7 @@
     <col min="7" max="7" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43080</v>
       </c>
@@ -2161,10 +1839,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="54" spans="2:7">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2181,7 +1859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="2:7">
+    <row r="39" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +1876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" ht="108" spans="2:7">
+    <row r="54" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
@@ -2218,7 +1896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="2:7">
+    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
@@ -2238,7 +1916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" ht="40.5" spans="2:3">
+    <row r="99" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
@@ -2246,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" ht="54" spans="1:7">
+    <row r="128" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -2269,7 +1947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="2:7">
+    <row r="130" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
@@ -2289,7 +1967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" ht="40.5" spans="2:7">
+    <row r="150" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>33</v>
       </c>
@@ -2309,7 +1987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" ht="27" spans="2:7">
+    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B172" s="3" t="s">
         <v>36</v>
       </c>
@@ -2326,11 +2004,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="193" ht="27" spans="1:7">
+    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>43083</v>
       </c>
@@ -2353,7 +2031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" ht="27" spans="1:7">
+    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>43086</v>
       </c>
@@ -2376,7 +2054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>43087</v>
       </c>
@@ -2399,7 +2077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>43088</v>
       </c>
@@ -2419,133 +2097,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" ht="27" spans="2:7">
+    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B283" s="3" t="s">
         <v>47</v>
       </c>
@@ -2562,7 +2240,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:7">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -2582,7 +2260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="2:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -2602,7 +2280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" ht="27" spans="2:6">
+    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
@@ -2619,7 +2297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="2:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>56</v>
       </c>
@@ -2633,7 +2311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" ht="40.5" spans="2:6">
+    <row r="330" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
@@ -2650,7 +2328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" ht="40.5" spans="1:6">
+    <row r="332" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A332" s="2">
         <v>43089</v>
       </c>
@@ -2670,7 +2348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A334" s="2">
         <v>43090</v>
       </c>
@@ -2690,7 +2368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" ht="27" spans="2:7">
+    <row r="355" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B355" s="3" t="s">
         <v>65</v>
       </c>
@@ -2710,7 +2388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="379" spans="2:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>68</v>
       </c>
@@ -2730,9 +2408,69 @@
         <v>70</v>
       </c>
     </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A381" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B381" t="s">
+        <v>71</v>
+      </c>
+      <c r="C381" t="s">
+        <v>72</v>
+      </c>
+      <c r="D381" t="s">
+        <v>9</v>
+      </c>
+      <c r="E381" t="s">
+        <v>76</v>
+      </c>
+      <c r="F381" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>43093</v>
+      </c>
+      <c r="B413" t="s">
+        <v>74</v>
+      </c>
+      <c r="C413" t="s">
+        <v>66</v>
+      </c>
+      <c r="D413" t="s">
+        <v>9</v>
+      </c>
+      <c r="E413" t="s">
+        <v>75</v>
+      </c>
+      <c r="F413" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="453" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B453" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C453" t="s">
+        <v>66</v>
+      </c>
+      <c r="D453" t="s">
+        <v>9</v>
+      </c>
+      <c r="E453" t="s">
+        <v>77</v>
+      </c>
+      <c r="F453" t="s">
+        <v>79</v>
+      </c>
+      <c r="G453" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>时间</t>
   </si>
@@ -235,50 +235,34 @@
   </si>
   <si>
     <t>1、刘静忘记MKS系统账号，密码，重置账号密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘静</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、特卖商品无法下单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2、特卖商家 KingBarley 新建专场之后，无法添加商品(KingBarley  密码：jinmaili2017)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可使用F11全屏模式，显示出确定按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、CRM与聚水潭订单状态不一致</t>
+  </si>
+  <si>
+    <t>2、APP分享到微信不能打开分享的内容</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,13 +279,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +436,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -323,9 +631,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -343,10 +893,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -357,7 +954,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -379,7 +976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -417,7 +1014,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -455,7 +1052,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -493,7 +1090,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -535,7 +1132,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -577,7 +1174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -619,7 +1216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -661,7 +1258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -699,7 +1296,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -737,7 +1334,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -775,7 +1372,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -819,7 +1416,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -863,7 +1460,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -901,7 +1498,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -939,7 +1536,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -977,7 +1574,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1015,7 +1612,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1053,7 +1650,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1091,7 +1688,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1129,7 +1726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1167,7 +1764,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1205,7 +1802,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1243,7 +1840,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1281,7 +1878,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1295,7 +1892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2543175" y="71828025"/>
-          <a:ext cx="2124372" cy="4191585"/>
+          <a:ext cx="2124075" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,7 +1922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1339,7 +1936,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4991100" y="71828025"/>
-          <a:ext cx="6430273" cy="2476846"/>
+          <a:ext cx="6430010" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,7 +1966,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1383,7 +1980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1990725" y="76685775"/>
-          <a:ext cx="3143689" cy="6373115"/>
+          <a:ext cx="3143250" cy="6372860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,7 +2010,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1427,7 +2024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5781675" y="76800075"/>
-          <a:ext cx="6468378" cy="1505160"/>
+          <a:ext cx="6468110" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,7 +2054,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1470,8 +2067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="83486625"/>
-          <a:ext cx="4896534" cy="3248479"/>
+          <a:off x="1800225" y="83658075"/>
+          <a:ext cx="4896485" cy="3248025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,7 +2098,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1509,7 +2106,83 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7086600" y="83724750"/>
-          <a:ext cx="5476191" cy="3371429"/>
+          <a:ext cx="5475605" cy="3371215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30" descr="195024494187897337"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="87620475"/>
+          <a:ext cx="10058400" cy="1091565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476885</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31" descr="1514191811(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="89182575"/>
+          <a:ext cx="4982210" cy="3543935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,20 +2446,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G453"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D461" sqref="D461"/>
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D495" sqref="D495"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -1796,7 +2470,7 @@
     <col min="7" max="7" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +2493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43080</v>
       </c>
@@ -1839,10 +2513,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" ht="54" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1859,7 +2533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" ht="40.5" spans="2:7">
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +2550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="54" ht="108" spans="2:7">
       <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +2570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" ht="27" spans="2:7">
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
@@ -1916,7 +2590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="99" ht="40.5" spans="2:3">
       <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
@@ -1924,7 +2598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="128" ht="54" spans="1:7">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -1947,7 +2621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" ht="27" spans="2:7">
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
@@ -1967,7 +2641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="150" ht="40.5" spans="2:7">
       <c r="B150" t="s">
         <v>33</v>
       </c>
@@ -1987,7 +2661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" ht="27" spans="2:7">
       <c r="B172" s="3" t="s">
         <v>36</v>
       </c>
@@ -2004,11 +2678,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:3">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" ht="27" spans="1:7">
       <c r="A193" s="2">
         <v>43083</v>
       </c>
@@ -2031,7 +2705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="195" ht="27" spans="1:7">
       <c r="A195" s="2">
         <v>43086</v>
       </c>
@@ -2054,7 +2728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7">
       <c r="A238" s="2">
         <v>43087</v>
       </c>
@@ -2077,7 +2751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>43088</v>
       </c>
@@ -2097,133 +2771,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:1">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:1">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:1">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:1">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:1">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:1">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:1">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:1">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:1">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:1">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:1">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:1">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:1">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:1">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:1">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:1">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:1">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:1">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:1">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:1">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:1">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:1">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:1">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:1">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:1">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:1">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:1">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:1">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:1">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:1">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="283" ht="27" spans="2:7">
       <c r="B283" s="3" t="s">
         <v>47</v>
       </c>
@@ -2240,7 +2914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:7">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -2260,7 +2934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:7">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -2280,7 +2954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="328" ht="27" spans="2:6">
       <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
@@ -2297,7 +2971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:7">
       <c r="B329" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="330" ht="40.5" spans="2:6">
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
@@ -2328,7 +3002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="332" ht="40.5" spans="1:6">
       <c r="A332" s="2">
         <v>43089</v>
       </c>
@@ -2348,7 +3022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6">
       <c r="A334" s="2">
         <v>43090</v>
       </c>
@@ -2368,7 +3042,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="355" ht="27" spans="2:7">
       <c r="B355" s="3" t="s">
         <v>65</v>
       </c>
@@ -2388,7 +3062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:7">
       <c r="B379" t="s">
         <v>68</v>
       </c>
@@ -2408,7 +3082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6">
       <c r="A381" s="2">
         <v>43091</v>
       </c>
@@ -2416,24 +3090,24 @@
         <v>71</v>
       </c>
       <c r="C381" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D381" t="s">
         <v>9</v>
       </c>
       <c r="E381" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413" s="2">
         <v>43093</v>
       </c>
       <c r="B413" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C413" t="s">
         <v>66</v>
@@ -2442,15 +3116,15 @@
         <v>9</v>
       </c>
       <c r="E413" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F413" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="453" ht="27" spans="2:7">
+      <c r="B453" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="453" spans="2:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B453" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C453" t="s">
         <v>66</v>
@@ -2459,18 +3133,49 @@
         <v>9</v>
       </c>
       <c r="E453" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F453" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G453" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B475" t="s">
+        <v>75</v>
+      </c>
+      <c r="C475" t="s">
+        <v>8</v>
+      </c>
+      <c r="D475" t="s">
+        <v>17</v>
+      </c>
+      <c r="E475" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5">
+      <c r="B485" t="s">
+        <v>76</v>
+      </c>
+      <c r="C485" t="s">
+        <v>8</v>
+      </c>
+      <c r="D485" t="s">
+        <v>9</v>
+      </c>
+      <c r="E485" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>时间</t>
   </si>
@@ -250,19 +250,25 @@
   </si>
   <si>
     <t>2、APP分享到微信不能打开分享的内容</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试发现可以正常打开，可能与母婴之家的网络环境有关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,151 +285,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,194 +304,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,251 +313,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -893,57 +333,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -954,7 +347,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -976,7 +369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1014,7 +407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1052,7 +445,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1090,7 +483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1132,7 +525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1174,7 +567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1216,7 +609,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1258,7 +651,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1296,7 +689,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1334,7 +727,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1372,7 +765,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1416,7 +809,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1460,7 +853,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1498,7 +891,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1536,7 +929,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1574,7 +967,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1612,7 +1005,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1650,7 +1043,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1688,7 +1081,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1726,7 +1119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1764,7 +1157,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1802,7 +1195,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1840,7 +1233,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1878,7 +1271,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1922,7 +1315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1966,7 +1359,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2010,7 +1403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2054,7 +1447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2098,7 +1491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2136,7 +1529,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2157,13 +1550,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>485</xdr:row>
+      <xdr:row>491</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>476885</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>512</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2174,7 +1567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2183,6 +1576,94 @@
         <a:xfrm>
           <a:off x="1971675" y="89182575"/>
           <a:ext cx="4982210" cy="3543935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>496175</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353925" y="87410926"/>
+          <a:ext cx="6268325" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>542</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="90297000"/>
+          <a:ext cx="5657850" cy="8543925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2446,21 +1927,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G485"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D495" sqref="D495"/>
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G491" sqref="G491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -2470,7 +1950,7 @@
     <col min="7" max="7" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +1973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43080</v>
       </c>
@@ -2513,10 +1993,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="54" spans="2:7">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="2:7">
+    <row r="39" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2550,7 +2030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" ht="108" spans="2:7">
+    <row r="54" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
@@ -2570,7 +2050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="2:7">
+    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
@@ -2590,7 +2070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" ht="40.5" spans="2:3">
+    <row r="99" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
@@ -2598,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" ht="54" spans="1:7">
+    <row r="128" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -2621,7 +2101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="2:7">
+    <row r="130" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
@@ -2641,7 +2121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" ht="40.5" spans="2:7">
+    <row r="150" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>33</v>
       </c>
@@ -2661,7 +2141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" ht="27" spans="2:7">
+    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B172" s="3" t="s">
         <v>36</v>
       </c>
@@ -2678,11 +2158,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="193" ht="27" spans="1:7">
+    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>43083</v>
       </c>
@@ -2705,7 +2185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" ht="27" spans="1:7">
+    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>43086</v>
       </c>
@@ -2728,7 +2208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>43087</v>
       </c>
@@ -2751,7 +2231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>43088</v>
       </c>
@@ -2771,133 +2251,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" ht="27" spans="2:7">
+    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B283" s="3" t="s">
         <v>47</v>
       </c>
@@ -2914,7 +2394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:7">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -2934,7 +2414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="2:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -2954,7 +2434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" ht="27" spans="2:6">
+    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
@@ -2971,7 +2451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="2:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>56</v>
       </c>
@@ -2985,7 +2465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" ht="40.5" spans="2:6">
+    <row r="330" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
@@ -3002,7 +2482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" ht="40.5" spans="1:6">
+    <row r="332" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A332" s="2">
         <v>43089</v>
       </c>
@@ -3022,7 +2502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A334" s="2">
         <v>43090</v>
       </c>
@@ -3042,7 +2522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" ht="27" spans="2:7">
+    <row r="355" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B355" s="3" t="s">
         <v>65</v>
       </c>
@@ -3062,7 +2542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="379" spans="2:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>68</v>
       </c>
@@ -3082,7 +2562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A381" s="2">
         <v>43091</v>
       </c>
@@ -3102,7 +2582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" s="2">
         <v>43093</v>
       </c>
@@ -3122,7 +2602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" ht="27" spans="2:7">
+    <row r="453" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B453" s="3" t="s">
         <v>73</v>
       </c>
@@ -3142,7 +2622,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" s="2">
         <v>43094</v>
       </c>
@@ -3158,24 +2638,33 @@
       <c r="E475" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="485" spans="2:5">
-      <c r="B485" t="s">
+      <c r="F475" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="491" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B491" t="s">
         <v>76</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C491" t="s">
         <v>8</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D491" t="s">
         <v>9</v>
       </c>
-      <c r="E485" t="s">
+      <c r="E491" t="s">
         <v>14</v>
       </c>
+      <c r="F491" t="s">
+        <v>78</v>
+      </c>
+      <c r="G491" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>时间</t>
   </si>
@@ -252,23 +252,41 @@
     <t>2、APP分享到微信不能打开分享的内容</t>
   </si>
   <si>
-    <t>已解决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>测试发现可以正常打开，可能与母婴之家的网络环境有关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询会员按照等级包邮功能开发</t>
+  </si>
+  <si>
+    <t>李海涛、刘刚</t>
+  </si>
+  <si>
+    <t>朱伟咨询开发计划、时间</t>
+  </si>
+  <si>
+    <t>2、拉取特卖管理后台会员账户信息</t>
+  </si>
+  <si>
+    <t>黄伟</t>
+  </si>
+  <si>
+    <t>黄伟整理出需要禁用 删除的会员</t>
+  </si>
+  <si>
+    <t>3、海淘直邮、日本直邮成本对账问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,13 +303,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +460,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,9 +655,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -333,10 +917,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -347,7 +978,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -369,7 +1000,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -407,7 +1038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -445,7 +1076,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -483,7 +1114,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -525,7 +1156,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -567,7 +1198,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -609,7 +1240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -651,7 +1282,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -689,7 +1320,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -727,7 +1358,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -765,7 +1396,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -809,7 +1440,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -853,7 +1484,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -891,7 +1522,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -929,7 +1560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -967,7 +1598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1005,7 +1636,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1043,7 +1674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1081,7 +1712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1119,7 +1750,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1157,7 +1788,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1195,7 +1826,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1233,7 +1864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1271,7 +1902,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1315,7 +1946,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1359,7 +1990,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1403,7 +2034,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1447,7 +2078,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1491,7 +2122,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1529,7 +2160,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1567,14 +2198,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="89182575"/>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="90211275"/>
           <a:ext cx="4982210" cy="3543935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1605,7 +2236,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1618,8 +2249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12353925" y="87410926"/>
-          <a:ext cx="6268325" cy="2124074"/>
+          <a:off x="12353925" y="87410925"/>
+          <a:ext cx="6268085" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,7 +2280,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1664,6 +2295,158 @@
         <a:xfrm>
           <a:off x="7200900" y="90297000"/>
           <a:ext cx="5657850" cy="8543925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34" descr="1514255901(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="99498150"/>
+          <a:ext cx="10058400" cy="2595880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>343535</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35" descr="1514266758(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="102536625"/>
+          <a:ext cx="5001260" cy="3543935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219710</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36" descr="1514266922(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="106699050"/>
+          <a:ext cx="4896485" cy="3201035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37" descr="850145881974799157"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="106708575"/>
+          <a:ext cx="10058400" cy="5404485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,20 +2710,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G491"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G491" sqref="G491"/>
+      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D601" sqref="D601"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -1950,7 +2734,7 @@
     <col min="7" max="7" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +2757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43080</v>
       </c>
@@ -1993,10 +2777,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" ht="54" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +2797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" ht="40.5" spans="2:7">
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="54" ht="108" spans="2:7">
       <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
@@ -2050,7 +2834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" ht="27" spans="2:7">
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
@@ -2070,7 +2854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="99" ht="40.5" spans="2:3">
       <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
@@ -2078,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="128" ht="54" spans="1:7">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -2101,7 +2885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" ht="27" spans="2:7">
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
@@ -2121,7 +2905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="150" ht="40.5" spans="2:7">
       <c r="B150" t="s">
         <v>33</v>
       </c>
@@ -2141,7 +2925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" ht="27" spans="2:7">
       <c r="B172" s="3" t="s">
         <v>36</v>
       </c>
@@ -2158,11 +2942,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:3">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" ht="27" spans="1:7">
       <c r="A193" s="2">
         <v>43083</v>
       </c>
@@ -2185,7 +2969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="195" ht="27" spans="1:7">
       <c r="A195" s="2">
         <v>43086</v>
       </c>
@@ -2208,7 +2992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7">
       <c r="A238" s="2">
         <v>43087</v>
       </c>
@@ -2231,7 +3015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>43088</v>
       </c>
@@ -2251,133 +3035,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:1">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:1">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:1">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:1">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:1">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:1">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:1">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:1">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:1">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:1">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:1">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:1">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:1">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:1">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:1">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:1">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:1">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:1">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:1">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:1">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:1">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:1">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:1">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:1">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:1">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:1">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:1">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:1">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:1">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:1">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="283" ht="27" spans="2:7">
       <c r="B283" s="3" t="s">
         <v>47</v>
       </c>
@@ -2394,7 +3178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:7">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -2414,7 +3198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:7">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -2434,7 +3218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="328" ht="27" spans="2:6">
       <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
@@ -2451,7 +3235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:7">
       <c r="B329" t="s">
         <v>56</v>
       </c>
@@ -2465,7 +3249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="330" ht="40.5" spans="2:6">
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
@@ -2482,7 +3266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="332" ht="40.5" spans="1:6">
       <c r="A332" s="2">
         <v>43089</v>
       </c>
@@ -2502,7 +3286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6">
       <c r="A334" s="2">
         <v>43090</v>
       </c>
@@ -2522,7 +3306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="355" ht="27" spans="2:7">
       <c r="B355" s="3" t="s">
         <v>65</v>
       </c>
@@ -2542,7 +3326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:7">
       <c r="B379" t="s">
         <v>68</v>
       </c>
@@ -2562,7 +3346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6">
       <c r="A381" s="2">
         <v>43091</v>
       </c>
@@ -2582,7 +3366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6">
       <c r="A413" s="2">
         <v>43093</v>
       </c>
@@ -2602,7 +3386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="453" ht="27" spans="2:7">
       <c r="B453" s="3" t="s">
         <v>73</v>
       </c>
@@ -2622,7 +3406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6">
       <c r="A475" s="2">
         <v>43094</v>
       </c>
@@ -2639,10 +3423,10 @@
         <v>14</v>
       </c>
       <c r="F475" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="2:7">
       <c r="B491" t="s">
         <v>76</v>
       </c>
@@ -2656,15 +3440,69 @@
         <v>14</v>
       </c>
       <c r="F491" t="s">
+        <v>29</v>
+      </c>
+      <c r="G491" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B545" t="s">
         <v>78</v>
       </c>
-      <c r="G491" t="s">
+      <c r="C545" t="s">
+        <v>46</v>
+      </c>
+      <c r="D545" t="s">
         <v>79</v>
       </c>
+      <c r="E545" t="s">
+        <v>18</v>
+      </c>
+      <c r="G545" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="563" spans="2:7">
+      <c r="B563" t="s">
+        <v>81</v>
+      </c>
+      <c r="C563" t="s">
+        <v>82</v>
+      </c>
+      <c r="D563" t="s">
+        <v>9</v>
+      </c>
+      <c r="E563" t="s">
+        <v>10</v>
+      </c>
+      <c r="F563" t="s">
+        <v>29</v>
+      </c>
+      <c r="G563" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="587" spans="2:5">
+      <c r="B587" t="s">
+        <v>84</v>
+      </c>
+      <c r="C587" t="s">
+        <v>51</v>
+      </c>
+      <c r="D587" t="s">
+        <v>9</v>
+      </c>
+      <c r="E587" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>时间</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>3、海淘直邮、日本直邮成本对账问题</t>
+  </si>
+  <si>
+    <t>设置、下单落地、出报表数据都没有问题，问题在于报表中毛利项没有换算成人民币</t>
+  </si>
+  <si>
+    <t>1、拉数据 一年内注册并购买过（下单支付成功）但是近60天未购买  （会员ID、客户姓名、电话）</t>
+  </si>
+  <si>
+    <t>2、按照区域（收货地址）来的近1年内浦东、闵行、茶陵这三个地址的会员信息（会员ID、客户姓名、电话、销售额）</t>
+  </si>
+  <si>
+    <t>3、上海鹰翼贸易有限公司 特卖商家2015年的订单数据都看不到了，现在商家需要开发票，要开明细</t>
   </si>
 </sst>
 </file>
@@ -282,9 +294,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -303,21 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -333,11 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,9 +346,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,46 +378,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,6 +404,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -441,7 +429,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,31 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,54 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +564,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -646,6 +616,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -656,41 +668,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +724,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -761,10 +773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,137 +785,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +924,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1025,8 +1040,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219710</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
@@ -1083,7 +1098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22288500" y="2066925"/>
+          <a:off x="23069550" y="2066925"/>
           <a:ext cx="10058400" cy="2744470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1289,7 +1304,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="26069925"/>
+          <a:off x="2085975" y="25898475"/>
           <a:ext cx="5639435" cy="2953385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1327,7 +1342,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="29918025"/>
+          <a:off x="1933575" y="29746575"/>
           <a:ext cx="4744085" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1365,7 +1380,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8515350" y="29832300"/>
+          <a:off x="8515350" y="29660850"/>
           <a:ext cx="3972560" cy="3220085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1409,7 +1424,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="33785175"/>
+          <a:off x="1943100" y="33613725"/>
           <a:ext cx="5667375" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1453,7 +1468,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9429750" y="33813750"/>
+          <a:off x="9429750" y="33642300"/>
           <a:ext cx="4467225" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1491,7 +1506,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819275" y="38023800"/>
+          <a:off x="1819275" y="37852350"/>
           <a:ext cx="4286885" cy="6973570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1529,7 +1544,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10010775" y="53273325"/>
+          <a:off x="10010775" y="53101875"/>
           <a:ext cx="5848985" cy="4886960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1567,7 +1582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="53397150"/>
+          <a:off x="1695450" y="53225700"/>
           <a:ext cx="7866380" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1605,7 +1620,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924050" y="58969275"/>
+          <a:off x="1924050" y="58797825"/>
           <a:ext cx="5144135" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1643,7 +1658,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="45758100"/>
+          <a:off x="1838325" y="45586650"/>
           <a:ext cx="5734685" cy="6924675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1661,8 +1676,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>551815</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>456565</xdr:colOff>
       <xdr:row>300</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
@@ -1681,7 +1696,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16182975" y="53644800"/>
+          <a:off x="16182975" y="53473350"/>
           <a:ext cx="5923915" cy="2618740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1719,7 +1734,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895475" y="62922150"/>
+          <a:off x="1895475" y="62750700"/>
           <a:ext cx="1047750" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1757,7 +1772,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10058400" y="62988825"/>
+          <a:off x="10058400" y="62817375"/>
           <a:ext cx="6525260" cy="2953385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1795,7 +1810,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305175" y="62922150"/>
+          <a:off x="3305175" y="62750700"/>
           <a:ext cx="6363335" cy="2343785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1833,7 +1848,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="66694050"/>
+          <a:off x="1781175" y="66522600"/>
           <a:ext cx="10058400" cy="3640455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1851,8 +1866,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>534035</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5201285</xdr:colOff>
       <xdr:row>375</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
@@ -1871,7 +1886,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12220575" y="66617850"/>
+          <a:off x="12220575" y="66446400"/>
           <a:ext cx="6439535" cy="3401060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1915,7 +1930,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="71828025"/>
+          <a:off x="2543175" y="71656575"/>
           <a:ext cx="2124075" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1959,7 +1974,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="71828025"/>
+          <a:off x="4991100" y="71656575"/>
           <a:ext cx="6430010" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2003,7 +2018,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990725" y="76685775"/>
+          <a:off x="1990725" y="76514325"/>
           <a:ext cx="3143250" cy="6372860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2047,7 +2062,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781675" y="76800075"/>
+          <a:off x="5781675" y="76628625"/>
           <a:ext cx="6468110" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2091,7 +2106,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="83658075"/>
+          <a:off x="1800225" y="83486625"/>
           <a:ext cx="4896485" cy="3248025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2129,7 +2144,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="83724750"/>
+          <a:off x="7086600" y="83553300"/>
           <a:ext cx="5475605" cy="3371215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2167,7 +2182,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685925" y="87620475"/>
+          <a:off x="1685925" y="87449025"/>
           <a:ext cx="10058400" cy="1091565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2205,7 +2220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="90211275"/>
+          <a:off x="1971675" y="90039825"/>
           <a:ext cx="4982210" cy="3543935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2223,8 +2238,8 @@
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>496175</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5163425</xdr:colOff>
       <xdr:row>487</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2249,7 +2264,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12353925" y="87410925"/>
+          <a:off x="12353925" y="87239475"/>
           <a:ext cx="6268085" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2293,7 +2308,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="90297000"/>
+          <a:off x="7200900" y="90125550"/>
           <a:ext cx="5657850" cy="8543925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2331,7 +2346,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1628775" y="99498150"/>
+          <a:off x="1628775" y="99326700"/>
           <a:ext cx="10058400" cy="2595880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2369,7 +2384,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819275" y="102536625"/>
+          <a:off x="1819275" y="102365175"/>
           <a:ext cx="5001260" cy="3543935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2407,7 +2422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="106699050"/>
+          <a:off x="1800225" y="106527600"/>
           <a:ext cx="4896485" cy="3201035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2445,8 +2460,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="106708575"/>
+          <a:off x="6972300" y="106537125"/>
           <a:ext cx="10058400" cy="5404485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4086225</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38" descr="1514343405(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17545050" y="106575225"/>
+          <a:ext cx="4867910" cy="3401060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>625</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39" descr="1514343606(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="113376075"/>
+          <a:ext cx="10058400" cy="2332355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3829050</xdr:colOff>
+      <xdr:row>661</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40" descr="1514349857"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="116366925"/>
+          <a:ext cx="10058400" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257810</xdr:colOff>
+      <xdr:row>652</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41" descr="1514349867(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="116414550"/>
+          <a:ext cx="4906010" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2716,12 +2883,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G587"/>
+  <dimension ref="A1:G642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D601" sqref="D601"/>
+      <selection pane="bottomLeft" activeCell="G629" sqref="G629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2731,7 +2898,7 @@
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
-    <col min="7" max="7" width="61.25" customWidth="1"/>
+    <col min="7" max="7" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2862,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" ht="54" spans="1:7">
+    <row r="128" ht="40.5" spans="1:7">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -3486,7 +3653,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="587" spans="2:5">
+    <row r="587" spans="2:7">
       <c r="B587" t="s">
         <v>84</v>
       </c>
@@ -3498,6 +3665,54 @@
       </c>
       <c r="E587" t="s">
         <v>14</v>
+      </c>
+      <c r="G587" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="623" ht="27" spans="1:5">
+      <c r="A623" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C623" t="s">
+        <v>60</v>
+      </c>
+      <c r="D623" t="s">
+        <v>9</v>
+      </c>
+      <c r="E623" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="625" ht="27" spans="2:5">
+      <c r="B625" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C625" t="s">
+        <v>60</v>
+      </c>
+      <c r="D625" t="s">
+        <v>9</v>
+      </c>
+      <c r="E625" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="642" ht="27" spans="2:5">
+      <c r="B642" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C642" t="s">
+        <v>66</v>
+      </c>
+      <c r="D642" t="s">
+        <v>17</v>
+      </c>
+      <c r="E642" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <t>时间</t>
   </si>
@@ -279,26 +279,29 @@
     <t>设置、下单落地、出报表数据都没有问题，问题在于报表中毛利项没有换算成人民币</t>
   </si>
   <si>
+    <t>2、按照区域（收货地址）来的近1年内浦东、闵行、茶陵这三个地址的会员信息（会员ID、客户姓名、电话、销售额）</t>
+  </si>
+  <si>
+    <t>3、上海鹰翼贸易有限公司 特卖商家2015年的订单数据都看不到了，现在商家需要开发票，要开明细</t>
+  </si>
+  <si>
     <t>1、拉数据 一年内注册并购买过（下单支付成功）但是近60天未购买  （会员ID、客户姓名、电话）</t>
-  </si>
-  <si>
-    <t>2、按照区域（收货地址）来的近1年内浦东、闵行、茶陵这三个地址的会员信息（会员ID、客户姓名、电话、销售额）</t>
-  </si>
-  <si>
-    <t>3、上海鹰翼贸易有限公司 特卖商家2015年的订单数据都看不到了，现在商家需要开发票，要开明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、特卖管理后台会员账户信息禁用新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,151 +318,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,194 +337,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -667,251 +346,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,57 +369,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -993,7 +383,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1015,7 +405,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1053,7 +443,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1091,7 +481,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1129,7 +519,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1171,7 +561,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1213,7 +603,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1255,7 +645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1297,7 +687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1335,7 +725,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1373,7 +763,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1411,7 +801,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1455,7 +845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1499,7 +889,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1537,7 +927,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1575,7 +965,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1613,7 +1003,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1651,7 +1041,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1689,7 +1079,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1727,7 +1117,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1765,7 +1155,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1803,7 +1193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1841,7 +1231,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1879,7 +1269,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1917,7 +1307,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1961,7 +1351,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2005,7 +1395,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2049,7 +1439,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2093,7 +1483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2137,7 +1527,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2175,7 +1565,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2213,7 +1603,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2251,7 +1641,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2295,7 +1685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2339,7 +1729,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2377,7 +1767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2415,7 +1805,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +1843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +1881,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2512,13 +1902,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>625</xdr:row>
+      <xdr:row>640</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>639</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>654</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2529,15 +1919,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1743075" y="113376075"/>
-          <a:ext cx="10058400" cy="2332355"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="115947825"/>
+          <a:ext cx="7972425" cy="2332355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2550,13 +1940,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>642</xdr:row>
+      <xdr:row>657</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3829050</xdr:colOff>
-      <xdr:row>661</xdr:row>
+      <xdr:row>676</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2567,7 +1957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2588,13 +1978,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>642</xdr:row>
+      <xdr:row>657</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257810</xdr:colOff>
-      <xdr:row>652</xdr:row>
+      <xdr:row>667</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2605,7 +1995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2614,6 +2004,138 @@
         <a:xfrm>
           <a:off x="1828800" y="116414550"/>
           <a:ext cx="4906010" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>623</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1467692</xdr:colOff>
+      <xdr:row>637</xdr:row>
+      <xdr:rowOff>19373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="112804575"/>
+          <a:ext cx="6030167" cy="2314898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>680</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1562983</xdr:colOff>
+      <xdr:row>690</xdr:row>
+      <xdr:rowOff>105025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="122843925"/>
+          <a:ext cx="6325483" cy="1790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>679</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38756</xdr:colOff>
+      <xdr:row>698</xdr:row>
+      <xdr:rowOff>29017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="122767725"/>
+          <a:ext cx="4696481" cy="3162742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2877,21 +2399,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G642"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G629" sqref="G629"/>
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D693" sqref="D693"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -2901,7 +2422,7 @@
     <col min="7" max="7" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43080</v>
       </c>
@@ -2944,10 +2465,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="54" spans="2:7">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2964,7 +2485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="2:7">
+    <row r="39" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +2502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" ht="108" spans="2:7">
+    <row r="54" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
@@ -3001,7 +2522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="2:7">
+    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
@@ -3021,7 +2542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" ht="40.5" spans="2:3">
+    <row r="99" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
@@ -3029,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" ht="40.5" spans="1:7">
+    <row r="128" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -3052,7 +2573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="2:7">
+    <row r="130" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
@@ -3072,7 +2593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" ht="40.5" spans="2:7">
+    <row r="150" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>33</v>
       </c>
@@ -3092,7 +2613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" ht="27" spans="2:7">
+    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B172" s="3" t="s">
         <v>36</v>
       </c>
@@ -3109,11 +2630,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="193" ht="27" spans="1:7">
+    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>43083</v>
       </c>
@@ -3136,7 +2657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" ht="27" spans="1:7">
+    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>43086</v>
       </c>
@@ -3159,7 +2680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>43087</v>
       </c>
@@ -3182,7 +2703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>43088</v>
       </c>
@@ -3202,133 +2723,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" ht="27" spans="2:7">
+    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B283" s="3" t="s">
         <v>47</v>
       </c>
@@ -3345,7 +2866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:7">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -3365,7 +2886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="2:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -3385,7 +2906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" ht="27" spans="2:6">
+    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
@@ -3402,7 +2923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="2:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +2937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" ht="40.5" spans="2:6">
+    <row r="330" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
@@ -3433,7 +2954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" ht="40.5" spans="1:6">
+    <row r="332" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A332" s="2">
         <v>43089</v>
       </c>
@@ -3453,7 +2974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A334" s="2">
         <v>43090</v>
       </c>
@@ -3473,7 +2994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" ht="27" spans="2:7">
+    <row r="355" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B355" s="3" t="s">
         <v>65</v>
       </c>
@@ -3493,7 +3014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="379" spans="2:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>68</v>
       </c>
@@ -3513,7 +3034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A381" s="2">
         <v>43091</v>
       </c>
@@ -3533,7 +3054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" s="2">
         <v>43093</v>
       </c>
@@ -3553,7 +3074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" ht="27" spans="2:7">
+    <row r="453" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B453" s="3" t="s">
         <v>73</v>
       </c>
@@ -3573,7 +3094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" s="2">
         <v>43094</v>
       </c>
@@ -3593,7 +3114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="2:7">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B491" t="s">
         <v>76</v>
       </c>
@@ -3613,7 +3134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A545" s="2">
         <v>43095</v>
       </c>
@@ -3633,7 +3154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="563" spans="2:7">
+    <row r="563" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B563" t="s">
         <v>81</v>
       </c>
@@ -3653,7 +3174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="587" spans="2:7">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B587" t="s">
         <v>84</v>
       </c>
@@ -3670,12 +3191,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="623" ht="27" spans="1:5">
+    <row r="623" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A623" s="2">
         <v>43096</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C623" t="s">
         <v>60</v>
@@ -3686,38 +3207,118 @@
       <c r="E623" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="625" ht="27" spans="2:5">
-      <c r="B625" s="3" t="s">
+      <c r="F623" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A624" s="2"/>
+      <c r="B624" s="4"/>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A625" s="2"/>
+      <c r="B625" s="4"/>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A626" s="2"/>
+      <c r="B626" s="4"/>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A627" s="2"/>
+      <c r="B627" s="4"/>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A628" s="2"/>
+      <c r="B628" s="4"/>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A629" s="2"/>
+      <c r="B629" s="4"/>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A630" s="2"/>
+      <c r="B630" s="4"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A631" s="2"/>
+      <c r="B631" s="4"/>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A632" s="2"/>
+      <c r="B632" s="4"/>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A633" s="2"/>
+      <c r="B633" s="4"/>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A634" s="2"/>
+      <c r="B634" s="4"/>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A635" s="2"/>
+      <c r="B635" s="4"/>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A636" s="2"/>
+      <c r="B636" s="4"/>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A637" s="2"/>
+      <c r="B637" s="4"/>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A638" s="2"/>
+      <c r="B638" s="4"/>
+    </row>
+    <row r="640" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B640" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C640" t="s">
+        <v>60</v>
+      </c>
+      <c r="D640" t="s">
+        <v>9</v>
+      </c>
+      <c r="E640" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="657" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B657" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C625" t="s">
-        <v>60</v>
-      </c>
-      <c r="D625" t="s">
+      <c r="C657" t="s">
+        <v>66</v>
+      </c>
+      <c r="D657" t="s">
+        <v>17</v>
+      </c>
+      <c r="E657" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="679" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B679" t="s">
+        <v>89</v>
+      </c>
+      <c r="C679" t="s">
+        <v>82</v>
+      </c>
+      <c r="D679" t="s">
         <v>9</v>
       </c>
-      <c r="E625" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="642" ht="27" spans="2:5">
-      <c r="B642" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C642" t="s">
-        <v>66</v>
-      </c>
-      <c r="D642" t="s">
-        <v>17</v>
-      </c>
-      <c r="E642" t="s">
+      <c r="E679" t="s">
         <v>10</v>
       </c>
+      <c r="F679" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>时间</t>
   </si>
@@ -279,29 +279,32 @@
     <t>设置、下单落地、出报表数据都没有问题，问题在于报表中毛利项没有换算成人民币</t>
   </si>
   <si>
+    <t>1、拉数据 一年内注册并购买过（下单支付成功）但是近60天未购买  （会员ID、客户姓名、电话）</t>
+  </si>
+  <si>
     <t>2、按照区域（收货地址）来的近1年内浦东、闵行、茶陵这三个地址的会员信息（会员ID、客户姓名、电话、销售额）</t>
   </si>
   <si>
     <t>3、上海鹰翼贸易有限公司 特卖商家2015年的订单数据都看不到了，现在商家需要开发票，要开明细</t>
   </si>
   <si>
-    <t>1、拉数据 一年内注册并购买过（下单支付成功）但是近60天未购买  （会员ID、客户姓名、电话）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4、特卖管理后台会员账户信息禁用新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联支付请求错误</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,13 +321,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +478,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -346,13 +673,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,14 +934,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -383,7 +996,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -405,7 +1018,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -443,7 +1056,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -481,7 +1094,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -519,7 +1132,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -561,7 +1174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -603,7 +1216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -645,7 +1258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -687,7 +1300,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -725,7 +1338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -763,7 +1376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -801,7 +1414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -845,7 +1458,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -889,7 +1502,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -927,7 +1540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -965,7 +1578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1003,7 +1616,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1041,7 +1654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1079,7 +1692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1117,7 +1730,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1155,7 +1768,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1193,7 +1806,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1231,7 +1844,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1269,7 +1882,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1307,7 +1920,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1351,7 +1964,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1395,7 +2008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1439,7 +2052,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1483,7 +2096,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1527,7 +2140,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1565,7 +2178,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1603,7 +2216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1641,7 +2254,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1685,7 +2298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1729,7 +2342,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1767,7 +2380,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1805,7 +2418,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1843,7 +2456,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1881,7 +2494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1919,7 +2532,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1940,13 +2553,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>657</xdr:row>
+      <xdr:row>665</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3829050</xdr:colOff>
-      <xdr:row>676</xdr:row>
+      <xdr:row>684</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1957,14 +2570,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7229475" y="116366925"/>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="120310275"/>
           <a:ext cx="10058400" cy="3343275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1978,13 +2591,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>657</xdr:row>
+      <xdr:row>665</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257810</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>675</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1995,14 +2608,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="116414550"/>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="120357900"/>
           <a:ext cx="4906010" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2033,7 +2646,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip r:embed="rId42">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2047,7 +2660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1914525" y="112804575"/>
-          <a:ext cx="6030167" cy="2314898"/>
+          <a:ext cx="6029960" cy="2314575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,13 +2673,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>680</xdr:row>
+      <xdr:row>688</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1562983</xdr:colOff>
-      <xdr:row>690</xdr:row>
+      <xdr:row>698</xdr:row>
       <xdr:rowOff>105025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2077,7 +2690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+        <a:blip r:embed="rId43">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2090,8 +2703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6724650" y="122843925"/>
-          <a:ext cx="6325483" cy="1790950"/>
+          <a:off x="6724650" y="124215525"/>
+          <a:ext cx="6325235" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,13 +2717,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>679</xdr:row>
+      <xdr:row>687</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38756</xdr:colOff>
-      <xdr:row>698</xdr:row>
+      <xdr:row>706</xdr:row>
       <xdr:rowOff>29017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2121,7 +2734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+        <a:blip r:embed="rId44">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2134,8 +2747,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819275" y="122767725"/>
-          <a:ext cx="4696481" cy="3162742"/>
+          <a:off x="1819275" y="124139325"/>
+          <a:ext cx="4696460" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>640</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1629410</xdr:colOff>
+      <xdr:row>662</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43" descr="1514427166(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="115824000"/>
+          <a:ext cx="4934585" cy="3782060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>768</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44" descr="322333709750473432"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="127863600"/>
+          <a:ext cx="5657850" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2399,20 +3088,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G679"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D693" sqref="D693"/>
+      <pane ySplit="1" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F709" sqref="F709"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -2422,7 +3112,7 @@
     <col min="7" max="7" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +3135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43080</v>
       </c>
@@ -2465,10 +3155,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" ht="54" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2485,7 +3175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" ht="40.5" spans="2:7">
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2502,7 +3192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="54" ht="108" spans="2:7">
       <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
@@ -2522,7 +3212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" ht="27" spans="2:7">
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
@@ -2542,7 +3232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="99" ht="40.5" spans="2:3">
       <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
@@ -2550,7 +3240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="128" ht="40.5" spans="1:7">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -2573,7 +3263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" ht="27" spans="2:7">
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
@@ -2593,7 +3283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="150" ht="40.5" spans="2:7">
       <c r="B150" t="s">
         <v>33</v>
       </c>
@@ -2613,7 +3303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" ht="27" spans="2:7">
       <c r="B172" s="3" t="s">
         <v>36</v>
       </c>
@@ -2630,11 +3320,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:3">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" ht="27" spans="1:7">
       <c r="A193" s="2">
         <v>43083</v>
       </c>
@@ -2657,7 +3347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="195" ht="27" spans="1:7">
       <c r="A195" s="2">
         <v>43086</v>
       </c>
@@ -2680,7 +3370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7">
       <c r="A238" s="2">
         <v>43087</v>
       </c>
@@ -2703,7 +3393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>43088</v>
       </c>
@@ -2723,133 +3413,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:1">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:1">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:1">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:1">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:1">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:1">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:1">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:1">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:1">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:1">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:1">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:1">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:1">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:1">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:1">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:1">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:1">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:1">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:1">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:1">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:1">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:1">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:1">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:1">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:1">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:1">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:1">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:1">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:1">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:1">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="283" ht="27" spans="2:7">
       <c r="B283" s="3" t="s">
         <v>47</v>
       </c>
@@ -2866,7 +3556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:7">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -2886,7 +3576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:7">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -2906,7 +3596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="328" ht="27" spans="2:6">
       <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
@@ -2923,7 +3613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:7">
       <c r="B329" t="s">
         <v>56</v>
       </c>
@@ -2937,7 +3627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="330" ht="40.5" spans="2:6">
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
@@ -2954,7 +3644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="332" ht="40.5" spans="1:6">
       <c r="A332" s="2">
         <v>43089</v>
       </c>
@@ -2974,7 +3664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6">
       <c r="A334" s="2">
         <v>43090</v>
       </c>
@@ -2994,7 +3684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="355" ht="27" spans="2:7">
       <c r="B355" s="3" t="s">
         <v>65</v>
       </c>
@@ -3014,7 +3704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:7">
       <c r="B379" t="s">
         <v>68</v>
       </c>
@@ -3034,7 +3724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6">
       <c r="A381" s="2">
         <v>43091</v>
       </c>
@@ -3054,7 +3744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6">
       <c r="A413" s="2">
         <v>43093</v>
       </c>
@@ -3074,7 +3764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="453" ht="27" spans="2:7">
       <c r="B453" s="3" t="s">
         <v>73</v>
       </c>
@@ -3094,7 +3784,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6">
       <c r="A475" s="2">
         <v>43094</v>
       </c>
@@ -3114,7 +3804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:7">
       <c r="B491" t="s">
         <v>76</v>
       </c>
@@ -3134,7 +3824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:7">
       <c r="A545" s="2">
         <v>43095</v>
       </c>
@@ -3154,7 +3844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="563" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="563" spans="2:7">
       <c r="B563" t="s">
         <v>81</v>
       </c>
@@ -3174,7 +3864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="587" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="587" spans="2:7">
       <c r="B587" t="s">
         <v>84</v>
       </c>
@@ -3191,12 +3881,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="623" ht="27" spans="1:6">
       <c r="A623" s="2">
         <v>43096</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C623" t="s">
         <v>60</v>
@@ -3208,72 +3898,72 @@
         <v>18</v>
       </c>
       <c r="F623" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
       <c r="A624" s="2"/>
-      <c r="B624" s="4"/>
-    </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B624" s="3"/>
+    </row>
+    <row r="625" spans="1:2">
       <c r="A625" s="2"/>
-      <c r="B625" s="4"/>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B625" s="3"/>
+    </row>
+    <row r="626" spans="1:2">
       <c r="A626" s="2"/>
-      <c r="B626" s="4"/>
-    </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B626" s="3"/>
+    </row>
+    <row r="627" spans="1:2">
       <c r="A627" s="2"/>
-      <c r="B627" s="4"/>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B627" s="3"/>
+    </row>
+    <row r="628" spans="1:2">
       <c r="A628" s="2"/>
-      <c r="B628" s="4"/>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B628" s="3"/>
+    </row>
+    <row r="629" spans="1:2">
       <c r="A629" s="2"/>
-      <c r="B629" s="4"/>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B629" s="3"/>
+    </row>
+    <row r="630" spans="1:2">
       <c r="A630" s="2"/>
-      <c r="B630" s="4"/>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B630" s="3"/>
+    </row>
+    <row r="631" spans="1:2">
       <c r="A631" s="2"/>
-      <c r="B631" s="4"/>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B631" s="3"/>
+    </row>
+    <row r="632" spans="1:2">
       <c r="A632" s="2"/>
-      <c r="B632" s="4"/>
-    </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B632" s="3"/>
+    </row>
+    <row r="633" spans="1:2">
       <c r="A633" s="2"/>
-      <c r="B633" s="4"/>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B633" s="3"/>
+    </row>
+    <row r="634" spans="1:2">
       <c r="A634" s="2"/>
-      <c r="B634" s="4"/>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B634" s="3"/>
+    </row>
+    <row r="635" spans="1:2">
       <c r="A635" s="2"/>
-      <c r="B635" s="4"/>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B635" s="3"/>
+    </row>
+    <row r="636" spans="1:2">
       <c r="A636" s="2"/>
-      <c r="B636" s="4"/>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B636" s="3"/>
+    </row>
+    <row r="637" spans="1:2">
       <c r="A637" s="2"/>
-      <c r="B637" s="4"/>
-    </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B637" s="3"/>
+    </row>
+    <row r="638" spans="1:2">
       <c r="A638" s="2"/>
-      <c r="B638" s="4"/>
-    </row>
-    <row r="640" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B638" s="3"/>
+    </row>
+    <row r="640" ht="27" spans="2:6">
       <c r="B640" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C640" t="s">
         <v>60</v>
@@ -3284,41 +3974,61 @@
       <c r="E640" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="657" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B657" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C657" t="s">
+      <c r="F640" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="665" ht="27" spans="2:5">
+      <c r="B665" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C665" t="s">
         <v>66</v>
       </c>
-      <c r="D657" t="s">
+      <c r="D665" t="s">
         <v>17</v>
       </c>
-      <c r="E657" t="s">
+      <c r="E665" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B679" t="s">
+    <row r="687" spans="2:6">
+      <c r="B687" t="s">
         <v>89</v>
       </c>
-      <c r="C679" t="s">
+      <c r="C687" t="s">
         <v>82</v>
       </c>
-      <c r="D679" t="s">
+      <c r="D687" t="s">
         <v>9</v>
       </c>
-      <c r="E679" t="s">
+      <c r="E687" t="s">
         <v>10</v>
       </c>
-      <c r="F679" t="s">
+      <c r="F687" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B709" t="s">
+        <v>90</v>
+      </c>
+      <c r="C709" t="s">
+        <v>46</v>
+      </c>
+      <c r="D709" t="s">
+        <v>9</v>
+      </c>
+      <c r="E709" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>时间</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>银联支付请求错误</t>
+  </si>
+  <si>
+    <t>财务没有与银联续签</t>
+  </si>
+  <si>
+    <t>1、拉取京东商品明细数据</t>
+  </si>
+  <si>
+    <t>2、拉取厦门蓓蕾初华网络科技有限公司供应商的所有商品档案明细</t>
   </si>
 </sst>
 </file>
@@ -299,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -321,18 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,15 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,63 +361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,7 +383,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,7 +461,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,37 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,61 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +537,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,25 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,13 +627,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,76 +683,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,8 +710,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2798,15 +2807,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>709</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:colOff>1057275</xdr:colOff>
       <xdr:row>768</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2823,8 +2832,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="127863600"/>
+          <a:off x="1876425" y="127911225"/>
           <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>773</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657860</xdr:colOff>
+      <xdr:row>793</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47" descr="1514539534(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="138912600"/>
+          <a:ext cx="5229860" cy="3353435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3094,12 +3141,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G709"/>
+  <dimension ref="A1:G773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F709" sqref="F709"/>
+      <selection pane="bottomLeft" activeCell="B783" sqref="B783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4009,7 +4056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:7">
       <c r="A709" s="2">
         <v>43097</v>
       </c>
@@ -4024,6 +4071,46 @@
       </c>
       <c r="E709" t="s">
         <v>14</v>
+      </c>
+      <c r="F709" t="s">
+        <v>29</v>
+      </c>
+      <c r="G709" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6">
+      <c r="A771" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B771" t="s">
+        <v>92</v>
+      </c>
+      <c r="C771" t="s">
+        <v>8</v>
+      </c>
+      <c r="D771" t="s">
+        <v>9</v>
+      </c>
+      <c r="E771" t="s">
+        <v>10</v>
+      </c>
+      <c r="F771" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="773" spans="2:5">
+      <c r="B773" t="s">
+        <v>93</v>
+      </c>
+      <c r="C773" t="s">
+        <v>8</v>
+      </c>
+      <c r="D773" t="s">
+        <v>9</v>
+      </c>
+      <c r="E773" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
   <si>
     <t>时间</t>
   </si>
@@ -301,19 +301,37 @@
   </si>
   <si>
     <t>2、拉取厦门蓓蕾初华网络科技有限公司供应商的所有商品档案明细</t>
+  </si>
+  <si>
+    <t>会员按照等级包邮功能开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海涛、刘刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月30日发布上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,151 +348,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,194 +367,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -682,251 +376,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,57 +396,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1005,7 +410,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1027,7 +432,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1065,7 +470,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1103,7 +508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1141,7 +546,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1183,7 +588,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1225,7 +630,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1267,7 +672,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1309,7 +714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1347,7 +752,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1385,7 +790,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1423,7 +828,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1467,7 +872,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1511,7 +916,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1549,7 +954,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1587,7 +992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1625,7 +1030,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1663,7 +1068,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1701,7 +1106,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1739,7 +1144,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1777,7 +1182,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1815,7 +1220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1853,7 +1258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1891,7 +1296,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1929,7 +1334,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1973,7 +1378,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2017,7 +1422,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2061,7 +1466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2105,7 +1510,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2149,7 +1554,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2187,7 +1592,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2225,7 +1630,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +1668,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2307,7 +1712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2351,7 +1756,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2389,7 +1794,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2427,7 +1832,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2465,7 +1870,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2503,7 +1908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2541,7 +1946,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2579,7 +1984,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2617,7 +2022,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2655,7 +2060,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2699,7 +2104,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId43">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2743,7 +2148,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId44">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2787,7 +2192,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2825,7 +2230,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2863,7 +2268,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2872,6 +2277,50 @@
         <a:xfrm>
           <a:off x="1905000" y="138912600"/>
           <a:ext cx="5229860" cy="3353435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>796</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>477186</xdr:colOff>
+      <xdr:row>825</xdr:row>
+      <xdr:rowOff>57836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="142817850"/>
+          <a:ext cx="6706536" cy="4915586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3135,21 +2584,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G773"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B783" sqref="B783"/>
+      <pane ySplit="1" topLeftCell="A805" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E806" sqref="E806"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="63.625" customWidth="1"/>
@@ -3159,7 +2607,7 @@
     <col min="7" max="7" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3182,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43080</v>
       </c>
@@ -3202,10 +2650,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="54" spans="2:7">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3222,7 +2670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="2:7">
+    <row r="39" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
@@ -3239,7 +2687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" ht="108" spans="2:7">
+    <row r="54" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
@@ -3259,7 +2707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="2:7">
+    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
@@ -3279,7 +2727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" ht="40.5" spans="2:3">
+    <row r="99" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
@@ -3287,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" ht="40.5" spans="1:7">
+    <row r="128" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>43082</v>
       </c>
@@ -3310,7 +2758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="2:7">
+    <row r="130" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
@@ -3330,7 +2778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" ht="40.5" spans="2:7">
+    <row r="150" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>33</v>
       </c>
@@ -3350,7 +2798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" ht="27" spans="2:7">
+    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B172" s="3" t="s">
         <v>36</v>
       </c>
@@ -3367,11 +2815,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="193" ht="27" spans="1:7">
+    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>43083</v>
       </c>
@@ -3394,7 +2842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" ht="27" spans="1:7">
+    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>43086</v>
       </c>
@@ -3417,7 +2865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>43087</v>
       </c>
@@ -3440,7 +2888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>43088</v>
       </c>
@@ -3460,133 +2908,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" ht="27" spans="2:7">
+    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B283" s="3" t="s">
         <v>47</v>
       </c>
@@ -3603,7 +3051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="2:7">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>50</v>
       </c>
@@ -3623,7 +3071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="2:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>53</v>
       </c>
@@ -3643,7 +3091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" ht="27" spans="2:6">
+    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B328" s="3" t="s">
         <v>55</v>
       </c>
@@ -3660,7 +3108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="2:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>56</v>
       </c>
@@ -3674,7 +3122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" ht="40.5" spans="2:6">
+    <row r="330" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
@@ -3691,7 +3139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" ht="40.5" spans="1:6">
+    <row r="332" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A332" s="2">
         <v>43089</v>
       </c>
@@ -3711,7 +3159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A334" s="2">
         <v>43090</v>
       </c>
@@ -3731,7 +3179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" ht="27" spans="2:7">
+    <row r="355" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B355" s="3" t="s">
         <v>65</v>
       </c>
@@ -3751,7 +3199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="379" spans="2:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>68</v>
       </c>
@@ -3771,7 +3219,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A381" s="2">
         <v>43091</v>
       </c>
@@ -3791,7 +3239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" s="2">
         <v>43093</v>
       </c>
@@ -3811,7 +3259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" ht="27" spans="2:7">
+    <row r="453" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B453" s="3" t="s">
         <v>73</v>
       </c>
@@ -3831,7 +3279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" s="2">
         <v>43094</v>
       </c>
@@ -3851,7 +3299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="2:7">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B491" t="s">
         <v>76</v>
       </c>
@@ -3871,7 +3319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A545" s="2">
         <v>43095</v>
       </c>
@@ -3891,7 +3339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="563" spans="2:7">
+    <row r="563" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B563" t="s">
         <v>81</v>
       </c>
@@ -3911,7 +3359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="587" spans="2:7">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B587" t="s">
         <v>84</v>
       </c>
@@ -3928,7 +3376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="623" ht="27" spans="1:6">
+    <row r="623" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A623" s="2">
         <v>43096</v>
       </c>
@@ -3948,67 +3396,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A624" s="2"/>
       <c r="B624" s="3"/>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A625" s="2"/>
       <c r="B625" s="3"/>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A626" s="2"/>
       <c r="B626" s="3"/>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A627" s="2"/>
       <c r="B627" s="3"/>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A628" s="2"/>
       <c r="B628" s="3"/>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A629" s="2"/>
       <c r="B629" s="3"/>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A630" s="2"/>
       <c r="B630" s="3"/>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A631" s="2"/>
       <c r="B631" s="3"/>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632" s="2"/>
       <c r="B632" s="3"/>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633" s="2"/>
       <c r="B633" s="3"/>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634" s="2"/>
       <c r="B634" s="3"/>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635" s="2"/>
       <c r="B635" s="3"/>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636" s="2"/>
       <c r="B636" s="3"/>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637" s="2"/>
       <c r="B637" s="3"/>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638" s="2"/>
       <c r="B638" s="3"/>
     </row>
-    <row r="640" ht="27" spans="2:6">
+    <row r="640" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B640" s="3" t="s">
         <v>87</v>
       </c>
@@ -4025,7 +3473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="665" ht="27" spans="2:5">
+    <row r="665" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B665" s="3" t="s">
         <v>88</v>
       </c>
@@ -4039,7 +3487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="2:6">
+    <row r="687" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B687" t="s">
         <v>89</v>
       </c>
@@ -4056,7 +3504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A709" s="2">
         <v>43097</v>
       </c>
@@ -4079,7 +3527,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771" s="2">
         <v>43098</v>
       </c>
@@ -4099,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="773" spans="2:5">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B773" t="s">
         <v>93</v>
       </c>
@@ -4112,10 +3560,36 @@
       <c r="E773" t="s">
         <v>10</v>
       </c>
+      <c r="F773" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A796" s="2">
+        <v>43099</v>
+      </c>
+      <c r="B796" t="s">
+        <v>94</v>
+      </c>
+      <c r="C796" t="s">
+        <v>95</v>
+      </c>
+      <c r="D796" t="s">
+        <v>96</v>
+      </c>
+      <c r="E796" t="s">
+        <v>97</v>
+      </c>
+      <c r="F796" t="s">
+        <v>98</v>
+      </c>
+      <c r="G796" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>